--- a/static/docs/materias.xlsx
+++ b/static/docs/materias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos_cunoc\Modela2\GESTOR\static\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Cargar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D82AC-616A-445C-886D-36A1942EEA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2CA370-609A-4DC6-8F60-C82CF0D065CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29F2FEF8-74CD-481E-98CD-BBE344CC6849}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{29F2FEF8-74CD-481E-98CD-BBE344CC6849}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>codigo</t>
   </si>
@@ -134,10 +134,40 @@
     <t>Materia 11</t>
   </si>
   <si>
-    <t>Materia 12</t>
-  </si>
-  <si>
     <t>asignados</t>
+  </si>
+  <si>
+    <t>semestre</t>
+  </si>
+  <si>
+    <t>no_periodos</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>BASICA</t>
+  </si>
+  <si>
+    <t>PROFESIONAL</t>
+  </si>
+  <si>
+    <t>Inter 1</t>
   </si>
 </sst>
 </file>
@@ -179,9 +209,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,15 +525,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5295571-44C7-4FC0-8A0A-2115A770D73A}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,179 +548,297 @@
         <v>33</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
         <v>75</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
         <v>100</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
         <v>125</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
         <v>80</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>